--- a/学习笔记_开发环境.xlsx
+++ b/学习笔记_开发环境.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DD86C8-9356-488D-BF13-F403A8EA4F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="23250" windowHeight="13170" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -24,23 +25,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E27" authorId="0">
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0">
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -129,14 +124,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 版本更新日期：2020-05-27</t>
         </r>
       </text>
     </comment>
-    <comment ref="K35" authorId="0">
+    <comment ref="K35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -165,12 +160,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="378">
   <si>
     <r>
       <rPr>
@@ -1662,12 +1657,32 @@
   <si>
     <t>MAVEN_HOME</t>
   </si>
+  <si>
+    <t>Maven配置文件：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\870_Env\02_Maven\MavenRepository\settings.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven本地包路径：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\870_Env\02_Maven\MavenRepository\repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\870_Env\02_Maven\apache-maven-3.9.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1833,22 +1848,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2057,7 +2059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2081,7 +2083,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2089,8 +2090,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -2103,10 +2103,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2137,7 +2136,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2168,7 +2167,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2205,7 +2204,7 @@
 ¥å¾çæè¿°">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2271,7 @@
 ¥å¾çæè¿°">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2338,7 @@
 ¥å¾çæè¿°">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2401,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2457,7 +2462,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2520,7 +2531,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2826,14 +2837,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2855,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
@@ -2863,7 +2874,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2876,7 +2887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2891,7 +2902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3480,7 +3491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3551,7 +3562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3567,7 +3578,7 @@
     <col min="2" max="2" width="23.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="40.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="35" customWidth="1"/>
     <col min="6" max="6" width="40.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="34.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="55.875" style="5" customWidth="1"/>
@@ -3578,40 +3589,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="33" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3625,7 +3636,7 @@
       <c r="D2" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="35" t="s">
         <v>210</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -3642,7 +3653,7 @@
       <c r="D3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="35" t="s">
         <v>214</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -3659,7 +3670,7 @@
       <c r="D4" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>214</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -3682,7 +3693,7 @@
       <c r="D5" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>211</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -3699,10 +3710,10 @@
       <c r="D6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="36" t="s">
         <v>165</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -3722,10 +3733,10 @@
       <c r="D7" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="36" t="s">
         <v>165</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -3742,10 +3753,10 @@
       <c r="D8" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="36" t="s">
         <v>170</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -3762,7 +3773,7 @@
       <c r="D9" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="35" t="s">
         <v>214</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -3776,7 +3787,7 @@
       <c r="B10" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="35">
         <v>2008</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -3790,7 +3801,7 @@
       <c r="B11" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="35">
         <v>2013</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -3807,7 +3818,7 @@
       <c r="D12" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="35">
         <v>2013</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -3824,7 +3835,7 @@
       <c r="D13" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="35" t="s">
         <v>214</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -3855,10 +3866,10 @@
       <c r="D15" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="36" t="s">
         <v>174</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -3872,10 +3883,10 @@
       <c r="B16" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -3892,10 +3903,10 @@
       <c r="D17" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="36" t="s">
         <v>223</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -3915,10 +3926,10 @@
       <c r="D18" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="36" t="s">
         <v>224</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -3938,7 +3949,7 @@
       <c r="D19" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="35" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3952,10 +3963,10 @@
       <c r="D20" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="36" t="s">
         <v>222</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -3978,10 +3989,10 @@
       <c r="D21" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="36" t="s">
         <v>221</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -4001,10 +4012,10 @@
       <c r="D22" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="36" t="s">
         <v>219</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -4024,7 +4035,7 @@
       <c r="D23" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="35" t="s">
         <v>246</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -4034,25 +4045,25 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="42" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:12" s="39" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="40"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
@@ -4064,7 +4075,7 @@
       <c r="D25" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="35" t="s">
         <v>257</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -4084,7 +4095,7 @@
       <c r="D26" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="35" t="s">
         <v>259</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -4107,10 +4118,10 @@
       <c r="D27" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="36" t="s">
         <v>304</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -4133,10 +4144,10 @@
       <c r="D28" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="36" t="s">
         <v>305</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -4162,10 +4173,10 @@
       <c r="D29" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="36" t="s">
         <v>322</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -4197,7 +4208,7 @@
       <c r="D30" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="36" t="s">
         <v>318</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -4240,7 +4251,7 @@
       <c r="D32" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="35" t="s">
         <v>333</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -4257,10 +4268,10 @@
       <c r="D33" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="36" t="s">
         <v>336</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -4277,10 +4288,10 @@
       <c r="D34" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="36" t="s">
         <v>341</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -4303,10 +4314,10 @@
       <c r="D35" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="36" t="s">
         <v>348</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -4325,23 +4336,23 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
-    <hyperlink ref="F15" r:id="rId4"/>
-    <hyperlink ref="F16" r:id="rId5"/>
-    <hyperlink ref="F22" r:id="rId6"/>
-    <hyperlink ref="F21" r:id="rId7"/>
-    <hyperlink ref="F20" r:id="rId8"/>
-    <hyperlink ref="F17" r:id="rId9"/>
-    <hyperlink ref="F18" r:id="rId10"/>
-    <hyperlink ref="F27" r:id="rId11"/>
-    <hyperlink ref="F28" r:id="rId12"/>
-    <hyperlink ref="F30" r:id="rId13"/>
-    <hyperlink ref="F29" r:id="rId14" location="download"/>
-    <hyperlink ref="F33" r:id="rId15"/>
-    <hyperlink ref="F34" r:id="rId16"/>
-    <hyperlink ref="F35" r:id="rId17"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F15" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="F16" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="F22" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="F21" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="F20" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="F17" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="F18" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="F27" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="F28" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="F30" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="F29" r:id="rId14" location="download" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="F33" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="F34" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="F35" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
@@ -4350,7 +4361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -4625,7 +4636,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="43" t="s">
         <v>355</v>
       </c>
       <c r="G13" s="3"/>
@@ -4901,7 +4912,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4909,108 +4920,93 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" t="s">
         <v>366</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
+      <c r="E5" t="s">
         <v>368</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>364</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="17" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>372</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="E11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>376</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5020,7 +5016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5034,7 +5030,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5049,46 +5045,46 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="32" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="27"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="25"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -5097,25 +5093,12 @@
       <c r="C8" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="15"/>
+      <c r="T8" s="17"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
@@ -5124,25 +5107,17 @@
       <c r="C9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="19"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="15"/>
+      <c r="T9" s="17"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
@@ -5151,25 +5126,17 @@
       <c r="C10" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="19"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="15"/>
+      <c r="T10" s="17"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
@@ -5178,25 +5145,17 @@
       <c r="C11" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="19"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="15"/>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
@@ -5205,25 +5164,17 @@
       <c r="C12" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="19"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="15"/>
+      <c r="T12" s="17"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -5232,25 +5183,17 @@
       <c r="C13" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="19"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="15"/>
+      <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
@@ -5259,808 +5202,392 @@
       <c r="C14" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="19"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="15"/>
+      <c r="T14" s="17"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="19"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+      <c r="T15" s="17"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="19"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="15"/>
+      <c r="T16" s="17"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="19"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="15"/>
+      <c r="T17" s="17"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="19"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="15"/>
+      <c r="T18" s="17"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" t="s">
         <v>360</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="19"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="15"/>
+      <c r="T19" s="17"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="19"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="15"/>
+      <c r="T20" s="17"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" t="s">
         <v>200</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="19"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="15"/>
+      <c r="T21" s="17"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" t="s">
         <v>201</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="19"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="15"/>
+      <c r="T22" s="17"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="19"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="15"/>
+      <c r="T23" s="17"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="19"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="15"/>
+      <c r="T24" s="17"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="19"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="15"/>
+      <c r="T25" s="17"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="19"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="15"/>
+      <c r="T26" s="17"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" t="s">
         <v>284</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="19"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="15"/>
+      <c r="T27" s="17"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="19"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="15"/>
+      <c r="T28" s="17"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="19"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="15"/>
+      <c r="T29" s="17"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="17" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="19"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="15"/>
+      <c r="T30" s="17"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="19"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="15"/>
+      <c r="T31" s="17"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="34" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" t="s">
         <v>150</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="19"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="15"/>
+      <c r="T32" s="17"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="34" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="19"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="15"/>
+      <c r="T33" s="17"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="34" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" t="s">
         <v>287</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="16" t="s">
+      <c r="J34" s="17"/>
+      <c r="K34" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="19"/>
+      <c r="T34" s="17"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="16"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="19"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="27"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="15"/>
+      <c r="T35" s="17"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="16"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="19"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="27"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="15"/>
+      <c r="T36" s="17"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="16"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="19"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="27"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="15"/>
+      <c r="T37" s="17"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="16"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="19"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="27"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="15"/>
+      <c r="T38" s="17"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="16"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="19"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="27"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="15"/>
+      <c r="T39" s="17"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="16"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="19"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="27"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="15"/>
+      <c r="T40" s="17"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="16"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="19"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="27"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="15"/>
+      <c r="T41" s="17"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="16"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="19"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="27"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="15"/>
+      <c r="T42" s="17"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="16"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="19"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="27"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="15"/>
+      <c r="T43" s="17"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="16"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="19"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="27"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="15"/>
+      <c r="T44" s="17"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="16"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="19"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="27"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="15"/>
+      <c r="T45" s="17"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="16"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="19"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="27"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="15"/>
+      <c r="T46" s="17"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="20"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="22"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -6069,7 +5596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6084,7 +5611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
